--- a/Leetcode_note.xlsx
+++ b/Leetcode_note.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F176A42-2967-4DCC-B786-88A098BEFB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72C14CB-EA83-4982-AB9D-993A96A84459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4087" uniqueCount="1034">
   <si>
     <t>Index</t>
   </si>
@@ -2423,9 +2423,6 @@
   </si>
   <si>
     <t>Avoid duplicate (all combinations, sort)</t>
-  </si>
-  <si>
-    <t>Search in array</t>
   </si>
   <si>
     <t>791. Custom Sort String</t>
@@ -3858,14 +3855,14 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4116,8 +4113,8 @@
   <dimension ref="A1:AC1255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A373" sqref="A373:XFD373"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13979,7 +13976,7 @@
         <v>514</v>
       </c>
       <c r="C307" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>161</v>
@@ -14008,7 +14005,7 @@
         <v>516</v>
       </c>
       <c r="C308" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>161</v>
@@ -14240,7 +14237,7 @@
         <v>84</v>
       </c>
       <c r="F316" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H316" s="35">
         <v>44764</v>
@@ -14912,7 +14909,7 @@
         <v>564</v>
       </c>
       <c r="C340" s="94" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>16</v>
@@ -14996,7 +14993,7 @@
         <v>568</v>
       </c>
       <c r="C343" s="94" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>161</v>
@@ -15726,7 +15723,7 @@
         <v>590</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D358" s="41" t="s">
         <v>16</v>
@@ -15863,7 +15860,7 @@
         <v>593</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D361" s="41" t="s">
         <v>161</v>
@@ -15905,7 +15902,7 @@
         <v>594</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D362" s="41" t="s">
         <v>16</v>
@@ -16421,8 +16418,8 @@
       <c r="B373" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="C373" s="3" t="s">
-        <v>1033</v>
+      <c r="C373" s="3">
+        <v>1</v>
       </c>
       <c r="D373" s="41" t="s">
         <v>19</v>
@@ -16471,11 +16468,11 @@
       <c r="A374" s="63">
         <v>301</v>
       </c>
-      <c r="B374" s="41" t="s">
+      <c r="B374" s="109" t="s">
         <v>608</v>
       </c>
-      <c r="C374" s="3" t="s">
-        <v>1033</v>
+      <c r="C374" s="3">
+        <v>1</v>
       </c>
       <c r="D374" s="41" t="s">
         <v>161</v>
@@ -16486,8 +16483,8 @@
       <c r="F374" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G374" s="41" t="s">
-        <v>231</v>
+      <c r="G374" s="95" t="s">
+        <v>234</v>
       </c>
       <c r="H374" s="42">
         <v>44784</v>
@@ -16517,14 +16514,14 @@
       <c r="AC374" s="41"/>
     </row>
     <row r="375" spans="1:29" ht="15" customHeight="1">
-      <c r="A375" s="3">
+      <c r="A375" s="63">
         <v>241</v>
       </c>
       <c r="B375" s="41" t="s">
         <v>610</v>
       </c>
-      <c r="C375" s="3" t="s">
-        <v>1033</v>
+      <c r="C375" s="3">
+        <v>1</v>
       </c>
       <c r="D375" s="41" t="s">
         <v>19</v>
@@ -16535,9 +16532,7 @@
       <c r="F375" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="G375" s="41" t="s">
-        <v>267</v>
-      </c>
+      <c r="G375" s="41"/>
       <c r="H375" s="42">
         <v>44784</v>
       </c>
@@ -16572,8 +16567,8 @@
       <c r="B376" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="C376" s="3" t="s">
-        <v>1033</v>
+      <c r="C376" s="3">
+        <v>1</v>
       </c>
       <c r="D376" s="41" t="s">
         <v>161</v>
@@ -16619,8 +16614,8 @@
       <c r="B377" s="41" t="s">
         <v>614</v>
       </c>
-      <c r="C377" s="3" t="s">
-        <v>1033</v>
+      <c r="C377" s="3">
+        <v>1</v>
       </c>
       <c r="D377" s="41" t="s">
         <v>161</v>
@@ -16666,8 +16661,8 @@
       <c r="B378" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="C378" s="3" t="s">
-        <v>1033</v>
+      <c r="C378" s="3">
+        <v>1</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>161</v>
@@ -16713,8 +16708,8 @@
       <c r="B379" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="C379" s="3" t="s">
-        <v>1033</v>
+      <c r="C379" s="3">
+        <v>1</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>161</v>
@@ -16753,8 +16748,8 @@
       <c r="B380" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="C380" s="3" t="s">
-        <v>1033</v>
+      <c r="C380" s="3">
+        <v>1</v>
       </c>
       <c r="D380" s="41" t="s">
         <v>161</v>
@@ -16797,7 +16792,7 @@
         <v>618</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D381" s="41" t="s">
         <v>16</v>
@@ -16840,7 +16835,7 @@
         <v>619</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D382" s="41" t="s">
         <v>19</v>
@@ -16883,7 +16878,7 @@
         <v>620</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D383" s="41" t="s">
         <v>19</v>
@@ -16932,7 +16927,7 @@
         <v>621</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D384" s="41" t="s">
         <v>161</v>
@@ -16977,7 +16972,7 @@
         <v>622</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D385" s="41" t="s">
         <v>19</v>
@@ -17024,7 +17019,7 @@
         <v>624</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D386" s="41" t="s">
         <v>161</v>
@@ -17073,7 +17068,7 @@
         <v>625</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D387" s="41" t="s">
         <v>161</v>
@@ -17122,7 +17117,7 @@
         <v>626</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D388" s="41" t="s">
         <v>16</v>
@@ -17171,7 +17166,7 @@
         <v>627</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D389" s="41" t="s">
         <v>161</v>
@@ -17216,7 +17211,7 @@
         <v>628</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D390" s="41" t="s">
         <v>16</v>
@@ -17320,7 +17315,7 @@
         <v>630</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D392" s="41" t="s">
         <v>19</v>
@@ -17369,7 +17364,7 @@
         <v>631</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D393" s="41" t="s">
         <v>161</v>
@@ -17416,7 +17411,7 @@
         <v>632</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D394" s="41" t="s">
         <v>19</v>
@@ -17467,7 +17462,7 @@
         <v>633</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D395" s="41" t="s">
         <v>19</v>
@@ -17514,7 +17509,7 @@
         <v>634</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D396" s="41" t="s">
         <v>161</v>
@@ -17561,7 +17556,7 @@
         <v>635</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D397" s="41" t="s">
         <v>19</v>
@@ -17612,7 +17607,7 @@
         <v>638</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D398" s="41" t="s">
         <v>161</v>
@@ -17657,7 +17652,7 @@
         <v>639</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D399" s="41" t="s">
         <v>16</v>
@@ -17702,7 +17697,7 @@
         <v>640</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D400" s="41" t="s">
         <v>19</v>
@@ -17747,7 +17742,7 @@
         <v>641</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D401" s="41" t="s">
         <v>19</v>
@@ -17794,7 +17789,7 @@
         <v>643</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D402" s="41" t="s">
         <v>161</v>
@@ -17843,7 +17838,7 @@
         <v>645</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D403" s="41" t="s">
         <v>16</v>
@@ -17888,7 +17883,7 @@
         <v>646</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D404" s="41" t="s">
         <v>19</v>
@@ -17937,7 +17932,7 @@
         <v>647</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D405" s="41" t="s">
         <v>19</v>
@@ -17982,7 +17977,7 @@
         <v>648</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D406" s="41" t="s">
         <v>161</v>
@@ -18031,7 +18026,7 @@
         <v>649</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D407" s="41" t="s">
         <v>16</v>
@@ -18078,7 +18073,7 @@
         <v>650</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D408" s="41" t="s">
         <v>19</v>
@@ -18125,7 +18120,7 @@
         <v>651</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D409" s="41" t="s">
         <v>16</v>
@@ -18172,7 +18167,7 @@
         <v>652</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D410" s="41" t="s">
         <v>19</v>
@@ -18225,7 +18220,7 @@
         <v>653</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D411" s="41" t="s">
         <v>16</v>
@@ -18276,7 +18271,7 @@
         <v>654</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D412" s="41" t="s">
         <v>161</v>
@@ -18325,7 +18320,7 @@
         <v>656</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D413" s="41" t="s">
         <v>161</v>
@@ -18372,7 +18367,7 @@
         <v>657</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D414" s="41" t="s">
         <v>19</v>
@@ -18421,7 +18416,7 @@
         <v>659</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D415" s="41" t="s">
         <v>161</v>
@@ -18466,7 +18461,7 @@
       </c>
       <c r="B416" s="41"/>
       <c r="C416" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D416" s="41"/>
       <c r="E416" s="41"/>
@@ -18501,7 +18496,7 @@
       </c>
       <c r="B417" s="41"/>
       <c r="C417" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D417" s="41"/>
       <c r="E417" s="41"/>
@@ -18538,7 +18533,7 @@
         <v>661</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D418" s="41" t="s">
         <v>16</v>
@@ -18587,7 +18582,7 @@
         <v>663</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D419" s="41" t="s">
         <v>16</v>
@@ -18640,7 +18635,7 @@
         <v>665</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D420" s="41" t="s">
         <v>19</v>
@@ -18689,7 +18684,7 @@
         <v>666</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D421" s="41" t="s">
         <v>19</v>
@@ -18738,7 +18733,7 @@
         <v>667</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D422" s="41" t="s">
         <v>161</v>
@@ -18785,7 +18780,7 @@
         <v>670</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D423" s="41" t="s">
         <v>19</v>
@@ -18834,7 +18829,7 @@
         <v>671</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D424" s="41" t="s">
         <v>19</v>
@@ -18885,7 +18880,7 @@
         <v>672</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D425" s="5" t="s">
         <v>16</v>
@@ -18933,7 +18928,7 @@
         <v>673</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D426" s="41" t="s">
         <v>19</v>
@@ -18984,7 +18979,7 @@
         <v>675</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D427" s="41" t="s">
         <v>19</v>
@@ -19033,7 +19028,7 @@
         <v>676</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>161</v>
@@ -19084,7 +19079,7 @@
         <v>679</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D429" s="41" t="s">
         <v>16</v>
@@ -19127,7 +19122,7 @@
         <v>680</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D430" s="41" t="s">
         <v>19</v>
@@ -19174,7 +19169,7 @@
         <v>681</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D431" s="41" t="s">
         <v>19</v>
@@ -19221,7 +19216,7 @@
         <v>682</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D432" s="41" t="s">
         <v>161</v>
@@ -19263,10 +19258,10 @@
         <v>2404</v>
       </c>
       <c r="B433" s="41" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D433" s="41" t="s">
         <v>16</v>
@@ -19308,10 +19303,10 @@
         <v>2405</v>
       </c>
       <c r="B434" s="41" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D434" s="41" t="s">
         <v>19</v>
@@ -19351,10 +19346,10 @@
         <v>2406</v>
       </c>
       <c r="B435" s="41" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D435" s="41" t="s">
         <v>19</v>
@@ -19392,10 +19387,10 @@
     <row r="436" spans="1:29" ht="15" customHeight="1">
       <c r="A436" s="3"/>
       <c r="B436" s="41" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D436" s="41" t="s">
         <v>161</v>
@@ -19433,19 +19428,19 @@
         <v>2409</v>
       </c>
       <c r="B437" s="41" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D437" s="41" t="s">
         <v>16</v>
       </c>
       <c r="E437" s="95" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F437" s="95" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G437" s="41"/>
       <c r="H437" s="42">
@@ -19478,10 +19473,10 @@
         <v>2410</v>
       </c>
       <c r="B438" s="95" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D438" s="95" t="s">
         <v>19</v>
@@ -19523,10 +19518,10 @@
         <v>2411</v>
       </c>
       <c r="B439" s="95" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D439" s="95" t="s">
         <v>19</v>
@@ -19567,10 +19562,10 @@
         <v>2412</v>
       </c>
       <c r="B440" s="95" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D440" s="95" t="s">
         <v>161</v>
@@ -19605,10 +19600,10 @@
         <v>2413</v>
       </c>
       <c r="B441" s="95" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D441" s="95" t="s">
         <v>16</v>
@@ -19646,10 +19641,10 @@
         <v>2414</v>
       </c>
       <c r="B442" s="95" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D442" s="95" t="s">
         <v>19</v>
@@ -19685,10 +19680,10 @@
         <v>2415</v>
       </c>
       <c r="B443" s="41" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D443" s="41" t="s">
         <v>19</v>
@@ -19726,10 +19721,10 @@
         <v>2416</v>
       </c>
       <c r="B444" s="95" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D444" s="95" t="s">
         <v>161</v>
@@ -19771,10 +19766,10 @@
         <v>2418</v>
       </c>
       <c r="B445" s="95" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D445" s="95" t="s">
         <v>16</v>
@@ -19809,10 +19804,10 @@
         <v>2419</v>
       </c>
       <c r="B446" s="95" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D446" s="95" t="s">
         <v>19</v>
@@ -19850,10 +19845,10 @@
         <v>2420</v>
       </c>
       <c r="B447" s="95" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D447" s="95" t="s">
         <v>19</v>
@@ -19891,10 +19886,10 @@
         <v>2421</v>
       </c>
       <c r="B448" s="95" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D448" s="95" t="s">
         <v>161</v>
@@ -19933,10 +19928,10 @@
         <v>2096</v>
       </c>
       <c r="B449" s="95" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D449" s="95" t="s">
         <v>19</v>
@@ -30224,7 +30219,7 @@
         <v>2405</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>19</v>
@@ -30379,7 +30374,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -30531,7 +30526,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -30558,7 +30553,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -30640,7 +30635,7 @@
         <v>2406</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>19</v>
@@ -30804,7 +30799,7 @@
         <v>2406</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>767</v>
@@ -30818,13 +30813,13 @@
         <v>2409</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="96" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E12" s="95"/>
     </row>
@@ -35309,10 +35304,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -35539,6 +35534,17 @@
       <c r="D17" s="127"/>
       <c r="E17" s="5" t="s">
         <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18">
+        <v>85</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -35655,10 +35661,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1001"/>
+  <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -36222,7 +36228,7 @@
       <c r="D38" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E38" s="130" t="s">
+      <c r="E38" s="129" t="s">
         <v>63</v>
       </c>
     </row>
@@ -36239,7 +36245,7 @@
       <c r="D39" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E39" s="131"/>
+      <c r="E39" s="130"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4"/>
@@ -36261,7 +36267,7 @@
       <c r="D41" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E41" s="130" t="s">
+      <c r="E41" s="129" t="s">
         <v>177</v>
       </c>
     </row>
@@ -36278,7 +36284,7 @@
       <c r="D42" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E42" s="131" t="s">
+      <c r="E42" s="130" t="s">
         <v>177</v>
       </c>
     </row>
@@ -36381,20 +36387,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="63">
-        <v>301</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>608</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>609</v>
-      </c>
-    </row>
+    <row r="50" spans="1:9"/>
     <row r="51" spans="1:9">
       <c r="A51" s="3">
         <v>241</v>
@@ -36622,8 +36615,8 @@
       <c r="C66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="129" t="s">
-        <v>786</v>
+      <c r="D66" s="131" t="s">
+        <v>609</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>63</v>
@@ -36664,46 +36657,52 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="63">
+        <v>301</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>608</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="111"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="13">
+      <c r="A70" s="3"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="13">
         <v>847</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B71" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C71" s="1">
         <v>1</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="3">
+    <row r="72" spans="1:6">
+      <c r="A72" s="3">
         <v>814</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B72" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -43211,14 +43210,22 @@
       <c r="D1001" s="4"/>
       <c r="E1001" s="4"/>
     </row>
+    <row r="1002" spans="1:5">
+      <c r="A1002" s="4"/>
+      <c r="B1002" s="4"/>
+      <c r="C1002" s="4"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D66:D68"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D66:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43260,7 +43267,7 @@
         <v>161</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -43395,13 +43402,13 @@
         <v>791</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
@@ -43415,7 +43422,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="107" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -43428,10 +43435,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:E1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -43491,7 +43498,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -43573,7 +43580,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -43660,7 +43667,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -43730,92 +43737,98 @@
         <v>19</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="46">
-        <v>84</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="132" t="s">
-        <v>147</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="46">
-        <v>85</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="132"/>
+        <v>84</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="132" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="46">
-        <v>2334</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>617</v>
+        <v>85</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="132"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="39">
+      <c r="A27" s="46">
+        <v>2334</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="132"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="5"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="39">
         <v>2398</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C29" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="E27" s="41" t="s">
+      <c r="D29" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E29" s="41" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3">
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
         <v>341</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="13">
+    <row r="31" spans="1:5">
+      <c r="A31" s="13">
         <v>1944</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C31" s="49" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="103"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31" s="49"/>
-    </row>
     <row r="32" spans="1:5">
-      <c r="C32" s="49"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="103"/>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="49"/>
@@ -46724,9 +46737,15 @@
     <row r="1001" spans="3:3">
       <c r="C1001" s="49"/>
     </row>
+    <row r="1002" spans="3:3">
+      <c r="C1002" s="49"/>
+    </row>
+    <row r="1003" spans="3:3">
+      <c r="C1003" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D25:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46758,7 +46777,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>6</v>
@@ -46772,7 +46791,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -46783,7 +46802,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -46794,7 +46813,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -46808,7 +46827,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -46859,13 +46878,13 @@
         <v>543</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="133" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -47070,7 +47089,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="135" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>63</v>
@@ -47081,7 +47100,7 @@
         <v>2096</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -47113,7 +47132,7 @@
         <v>161</v>
       </c>
       <c r="D27" s="137" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -50246,7 +50265,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>716</v>
@@ -50398,83 +50417,83 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>807</v>
       </c>
       <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="68" t="s">
+        <v>807</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>808</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="D3" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60">
       <c r="A4" s="67" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="D5" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="D7" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="D9" s="67" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>817</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="15.75" customHeight="1">
       <c r="D21" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="15.75" customHeight="1">
@@ -50482,25 +50501,25 @@
     </row>
     <row r="23" spans="4:5" ht="15.75" customHeight="1">
       <c r="D23" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="15.75" customHeight="1"/>
     <row r="25" spans="4:5" ht="15.75" customHeight="1">
       <c r="D25" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="15.75" customHeight="1"/>
     <row r="27" spans="4:5" ht="15.75" customHeight="1">
       <c r="D27" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="4:5" ht="15.75" customHeight="1"/>
@@ -50512,37 +50531,37 @@
     <row r="30" spans="4:5" ht="15.75" customHeight="1"/>
     <row r="31" spans="4:5" ht="15.75" customHeight="1">
       <c r="D31" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="4:5" ht="15.75" customHeight="1"/>
     <row r="33" spans="4:4" ht="15.75" customHeight="1">
       <c r="D33" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="35" spans="4:4" ht="15.75" customHeight="1">
       <c r="D35" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="37" spans="4:4" ht="15.75" customHeight="1">
       <c r="D37" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="38" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="39" spans="4:4" ht="15.75" customHeight="1">
       <c r="D39" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="41" spans="4:4" ht="15.75" customHeight="1">
       <c r="D41" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="42" spans="4:4" ht="15.75" customHeight="1"/>
@@ -50554,7 +50573,7 @@
     <row r="44" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="45" spans="4:4" ht="15.75" customHeight="1">
       <c r="D45" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46" spans="4:4" ht="15.75" customHeight="1"/>
@@ -51543,24 +51562,24 @@
         <v>715</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="49" t="s">
+        <v>834</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>835</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>837</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>838</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -51570,7 +51589,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -51583,15 +51602,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>841</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>842</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -51601,7 +51620,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -51619,12 +51638,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>129</v>
@@ -51633,21 +51652,21 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E6" s="72">
         <v>1</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
@@ -51656,12 +51675,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B8" s="69" t="s">
         <v>142</v>
@@ -51670,12 +51689,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B9" s="69" t="s">
         <v>142</v>
@@ -51684,12 +51703,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>142</v>
@@ -51698,7 +51717,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -51709,32 +51728,32 @@
         <v>142</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E11" s="72">
         <v>1</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B12" s="69" t="s">
         <v>858</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>859</v>
       </c>
       <c r="E12" s="75">
         <v>1</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="76" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B13" s="69" t="s">
         <v>370</v>
@@ -51743,12 +51762,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B14" s="69" t="s">
         <v>370</v>
@@ -51757,12 +51776,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="30" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>219</v>
@@ -51771,12 +51790,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>373</v>
@@ -51785,7 +51804,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -51799,34 +51818,34 @@
         <v>1</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>871</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>872</v>
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="54" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="30" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>752</v>
       </c>
       <c r="E19" s="78"/>
       <c r="F19" s="71" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -51835,7 +51854,7 @@
       </c>
       <c r="E20" s="78"/>
       <c r="F20" s="71" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -51847,7 +51866,7 @@
       </c>
       <c r="E21" s="78"/>
       <c r="F21" s="71" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -51858,13 +51877,13 @@
         <v>142</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E22" s="49">
         <v>1</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -51876,19 +51895,19 @@
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="54" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="71" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -51899,7 +51918,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E26" s="49"/>
     </row>
@@ -55861,32 +55880,32 @@
         <v>715</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="77" t="s">
+        <v>884</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>885</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="C2" s="82" t="s">
         <v>886</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="77" t="s">
+        <v>887</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>888</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>889</v>
-      </c>
       <c r="C3" s="83" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -55894,13 +55913,13 @@
         <v>472</v>
       </c>
       <c r="B4" s="77" t="s">
+        <v>889</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>890</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="D4" s="5" t="s">
         <v>891</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -55908,24 +55927,24 @@
         <v>142</v>
       </c>
       <c r="B5" s="77" t="s">
+        <v>892</v>
+      </c>
+      <c r="C5" s="84" t="s">
         <v>893</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="D5" s="5" t="s">
         <v>894</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -55933,21 +55952,21 @@
         <v>142</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="77" t="s">
+        <v>897</v>
+      </c>
+      <c r="B8" s="77" t="s">
         <v>898</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>899</v>
-      </c>
       <c r="C8" s="85" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -55958,7 +55977,7 @@
         <v>116</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -55966,10 +55985,10 @@
         <v>142</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -55977,13 +55996,13 @@
         <v>142</v>
       </c>
       <c r="B11" s="77" t="s">
+        <v>901</v>
+      </c>
+      <c r="C11" s="84" t="s">
         <v>902</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>903</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -55991,10 +56010,10 @@
         <v>142</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -56002,10 +56021,10 @@
         <v>370</v>
       </c>
       <c r="B13" s="77" t="s">
+        <v>904</v>
+      </c>
+      <c r="C13" s="85" t="s">
         <v>905</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -56013,10 +56032,10 @@
         <v>370</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -56024,21 +56043,21 @@
         <v>142</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -56046,10 +56065,10 @@
         <v>219</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -56057,38 +56076,38 @@
         <v>219</v>
       </c>
       <c r="B18" s="77" t="s">
+        <v>910</v>
+      </c>
+      <c r="C18" s="84" t="s">
         <v>911</v>
       </c>
-      <c r="C18" s="84" t="s">
-        <v>912</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="80" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B19" s="77" t="s">
+        <v>912</v>
+      </c>
+      <c r="C19" s="84" t="s">
         <v>913</v>
       </c>
-      <c r="C19" s="84" t="s">
-        <v>914</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B20" s="77" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -56096,21 +56115,21 @@
         <v>752</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -56118,10 +56137,10 @@
         <v>752</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -56129,13 +56148,13 @@
         <v>219</v>
       </c>
       <c r="B24" s="77" t="s">
+        <v>917</v>
+      </c>
+      <c r="C24" s="84" t="s">
         <v>918</v>
       </c>
-      <c r="C24" s="84" t="s">
-        <v>919</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -56143,10 +56162,10 @@
         <v>219</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -56157,7 +56176,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -56165,43 +56184,43 @@
         <v>142</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="77" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B29" s="77" t="s">
+        <v>922</v>
+      </c>
+      <c r="C29" s="86" t="s">
         <v>923</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="77" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B30" s="77" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -56209,46 +56228,46 @@
         <v>142</v>
       </c>
       <c r="B31" s="77" t="s">
+        <v>925</v>
+      </c>
+      <c r="C31" s="74" t="s">
         <v>926</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B32" s="77" t="s">
+        <v>927</v>
+      </c>
+      <c r="C32" s="74" t="s">
         <v>928</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="80" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B33" s="77" t="s">
+        <v>929</v>
+      </c>
+      <c r="C33" s="74" t="s">
         <v>930</v>
       </c>
-      <c r="C33" s="74" t="s">
-        <v>931</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B34" s="77" t="s">
+        <v>931</v>
+      </c>
+      <c r="C34" s="74" t="s">
         <v>932</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -56259,7 +56278,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -56267,13 +56286,13 @@
         <v>472</v>
       </c>
       <c r="B36" s="77" t="s">
+        <v>934</v>
+      </c>
+      <c r="C36" s="74" t="s">
         <v>935</v>
       </c>
-      <c r="C36" s="74" t="s">
-        <v>936</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -56281,21 +56300,21 @@
         <v>219</v>
       </c>
       <c r="B37" s="77" t="s">
+        <v>936</v>
+      </c>
+      <c r="C37" s="74" t="s">
         <v>937</v>
-      </c>
-      <c r="C37" s="74" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B38" s="77" t="s">
+        <v>938</v>
+      </c>
+      <c r="C38" s="74" t="s">
         <v>939</v>
-      </c>
-      <c r="C38" s="74" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -56306,18 +56325,18 @@
         <v>65</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="77" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B40" s="77" t="s">
+        <v>941</v>
+      </c>
+      <c r="C40" s="86" t="s">
         <v>942</v>
-      </c>
-      <c r="C40" s="86" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -56325,24 +56344,24 @@
         <v>472</v>
       </c>
       <c r="B41" s="77" t="s">
+        <v>943</v>
+      </c>
+      <c r="C41" s="74" t="s">
         <v>944</v>
       </c>
-      <c r="C41" s="74" t="s">
-        <v>945</v>
-      </c>
       <c r="D41" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B42" s="77" t="s">
+        <v>945</v>
+      </c>
+      <c r="C42" s="86" t="s">
         <v>946</v>
-      </c>
-      <c r="C42" s="86" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -56350,10 +56369,10 @@
         <v>219</v>
       </c>
       <c r="B43" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="C43" s="74" t="s">
         <v>948</v>
-      </c>
-      <c r="C43" s="74" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -56361,57 +56380,57 @@
         <v>219</v>
       </c>
       <c r="B44" s="77" t="s">
+        <v>949</v>
+      </c>
+      <c r="C44" s="74" t="s">
         <v>950</v>
-      </c>
-      <c r="C44" s="74" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="77" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B45" s="77" t="s">
+        <v>951</v>
+      </c>
+      <c r="C45" s="74" t="s">
         <v>952</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B46" s="77" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="74" t="s">
+        <v>953</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>954</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B47" s="77" t="s">
+        <v>955</v>
+      </c>
+      <c r="C47" s="87" t="s">
         <v>956</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B48" s="77" t="s">
         <v>127</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -56419,10 +56438,10 @@
         <v>752</v>
       </c>
       <c r="B49" s="77" t="s">
+        <v>958</v>
+      </c>
+      <c r="C49" s="74" t="s">
         <v>959</v>
-      </c>
-      <c r="C49" s="74" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -56430,10 +56449,10 @@
         <v>752</v>
       </c>
       <c r="B50" s="77" t="s">
+        <v>960</v>
+      </c>
+      <c r="C50" s="74" t="s">
         <v>961</v>
-      </c>
-      <c r="C50" s="74" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -56441,10 +56460,10 @@
         <v>472</v>
       </c>
       <c r="B51" s="77" t="s">
+        <v>962</v>
+      </c>
+      <c r="C51" s="74" t="s">
         <v>963</v>
-      </c>
-      <c r="C51" s="74" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -56452,10 +56471,10 @@
         <v>472</v>
       </c>
       <c r="B52" s="77" t="s">
+        <v>964</v>
+      </c>
+      <c r="C52" s="88" t="s">
         <v>965</v>
-      </c>
-      <c r="C52" s="88" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -56463,10 +56482,10 @@
         <v>219</v>
       </c>
       <c r="B53" s="77" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -56474,32 +56493,32 @@
         <v>752</v>
       </c>
       <c r="B54" s="77" t="s">
+        <v>967</v>
+      </c>
+      <c r="C54" s="74" t="s">
         <v>968</v>
-      </c>
-      <c r="C54" s="74" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="77" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B55" s="77" t="s">
+        <v>969</v>
+      </c>
+      <c r="C55" s="89" t="s">
         <v>970</v>
-      </c>
-      <c r="C55" s="89" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B56" s="77" t="s">
+        <v>971</v>
+      </c>
+      <c r="C56" s="74" t="s">
         <v>972</v>
-      </c>
-      <c r="C56" s="74" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -56507,10 +56526,10 @@
         <v>142</v>
       </c>
       <c r="B57" s="77" t="s">
+        <v>973</v>
+      </c>
+      <c r="C57" s="74" t="s">
         <v>974</v>
-      </c>
-      <c r="C57" s="74" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -56518,13 +56537,13 @@
         <v>33</v>
       </c>
       <c r="B58" s="77" t="s">
+        <v>975</v>
+      </c>
+      <c r="C58" s="86" t="s">
         <v>976</v>
       </c>
-      <c r="C58" s="86" t="s">
+      <c r="D58" s="5" t="s">
         <v>977</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -56532,10 +56551,10 @@
         <v>142</v>
       </c>
       <c r="B59" s="77" t="s">
+        <v>978</v>
+      </c>
+      <c r="C59" s="74" t="s">
         <v>979</v>
-      </c>
-      <c r="C59" s="74" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -56543,21 +56562,21 @@
         <v>472</v>
       </c>
       <c r="B60" s="77" t="s">
+        <v>980</v>
+      </c>
+      <c r="C60" s="74" t="s">
         <v>981</v>
-      </c>
-      <c r="C60" s="74" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B61" s="77" t="s">
+        <v>982</v>
+      </c>
+      <c r="C61" s="74" t="s">
         <v>983</v>
-      </c>
-      <c r="C61" s="74" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -56565,10 +56584,10 @@
         <v>33</v>
       </c>
       <c r="B62" s="77" t="s">
+        <v>984</v>
+      </c>
+      <c r="C62" s="74" t="s">
         <v>985</v>
-      </c>
-      <c r="C62" s="74" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -56576,43 +56595,43 @@
         <v>142</v>
       </c>
       <c r="B63" s="77" t="s">
+        <v>986</v>
+      </c>
+      <c r="C63" s="74" t="s">
         <v>987</v>
-      </c>
-      <c r="C63" s="74" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B64" s="77" t="s">
+        <v>988</v>
+      </c>
+      <c r="C64" s="74" t="s">
         <v>989</v>
-      </c>
-      <c r="C64" s="74" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B65" s="77" t="s">
         <v>31</v>
       </c>
       <c r="C65" s="74" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B66" s="77" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C66" s="74" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -56623,7 +56642,7 @@
         <v>104</v>
       </c>
       <c r="C67" s="88" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -56631,21 +56650,21 @@
         <v>752</v>
       </c>
       <c r="B68" s="77" t="s">
+        <v>993</v>
+      </c>
+      <c r="C68" s="74" t="s">
         <v>994</v>
-      </c>
-      <c r="C68" s="74" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="77" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B69" s="77" t="s">
+        <v>995</v>
+      </c>
+      <c r="C69" s="86" t="s">
         <v>996</v>
-      </c>
-      <c r="C69" s="86" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -56656,7 +56675,7 @@
         <v>43</v>
       </c>
       <c r="C70" s="74" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -56664,10 +56683,10 @@
         <v>472</v>
       </c>
       <c r="B71" s="77" t="s">
+        <v>998</v>
+      </c>
+      <c r="C71" s="74" t="s">
         <v>999</v>
-      </c>
-      <c r="C71" s="74" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -56675,43 +56694,43 @@
         <v>142</v>
       </c>
       <c r="B72" s="77" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C72" s="74" t="s">
         <v>1001</v>
-      </c>
-      <c r="C72" s="74" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B73" s="77" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C73" s="74" t="s">
         <v>1003</v>
-      </c>
-      <c r="C73" s="74" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B74" s="77" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C74" s="74" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B75" s="77" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C75" s="74" t="s">
         <v>1006</v>
-      </c>
-      <c r="C75" s="74" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -56719,10 +56738,10 @@
         <v>370</v>
       </c>
       <c r="B76" s="77" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C76" s="74" t="s">
         <v>1008</v>
-      </c>
-      <c r="C76" s="74" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -56730,10 +56749,10 @@
         <v>33</v>
       </c>
       <c r="B77" s="77" t="s">
+        <v>958</v>
+      </c>
+      <c r="C77" s="74" t="s">
         <v>959</v>
-      </c>
-      <c r="C77" s="74" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -60515,7 +60534,7 @@
   <dimension ref="A1:G1006"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D22"/>
+      <selection activeCell="E57" sqref="E56:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -60987,7 +61006,7 @@
         <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -61067,7 +61086,7 @@
         <v>122</v>
       </c>
       <c r="G42" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -71118,10 +71137,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -71525,7 +71544,7 @@
         <v>572</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -71691,21 +71710,8 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="41">
-        <v>241</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>367</v>
-      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="41"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1">
       <c r="A49" s="41">
@@ -71754,128 +71760,131 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="D53" s="120" t="s">
+    <row r="53" spans="1:6" ht="15" customHeight="1">
+      <c r="A53" s="48"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="41">
+        <v>241</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>610</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="13">
-        <v>813</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="111"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3">
-        <v>410</v>
+      <c r="A55" s="13">
+        <v>813</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="D55" s="111"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4">
-        <v>1335</v>
+      <c r="A56" s="3">
+        <v>410</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="E57" s="5" t="s">
+      <c r="A57" s="4">
+        <v>1335</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="E58" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="3">
+    <row r="59" spans="1:6">
+      <c r="A59" s="3">
         <v>494</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="120" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="3"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="120" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="3">
+    <row r="61" spans="1:6">
+      <c r="A61" s="3">
         <v>474</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="111"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1">
-      <c r="A61" s="3">
-        <v>879</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E61" t="s">
-        <v>611</v>
-      </c>
+      <c r="D61" s="111"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" s="3">
-        <v>343</v>
+        <v>879</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E62" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" s="3">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>19</v>
@@ -71883,12 +71892,23 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
       <c r="A64" s="3">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1">
+      <c r="A65" s="3">
         <v>576</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B65" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -71896,8 +71916,8 @@
   <mergeCells count="5">
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D60:D61"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -71976,7 +71996,7 @@
         <v>161</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -72030,7 +72050,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="121" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -72081,7 +72101,7 @@
         <v>63</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -72120,7 +72140,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>668</v>

--- a/Leetcode_note.xlsx
+++ b/Leetcode_note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72C14CB-EA83-4982-AB9D-993A96A84459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E03EA-9900-4717-9D0B-D7A89E62A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4087" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="1034">
   <si>
     <t>Index</t>
   </si>
@@ -4113,8 +4113,8 @@
   <dimension ref="A1:AC1255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C381" sqref="C381"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C385" sqref="C385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16834,8 +16834,8 @@
       <c r="B382" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="C382" s="3" t="s">
-        <v>1032</v>
+      <c r="C382" s="3">
+        <v>1</v>
       </c>
       <c r="D382" s="41" t="s">
         <v>19</v>
@@ -16877,8 +16877,8 @@
       <c r="B383" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="C383" s="3" t="s">
-        <v>1032</v>
+      <c r="C383" s="3">
+        <v>1</v>
       </c>
       <c r="D383" s="41" t="s">
         <v>19</v>
@@ -16926,8 +16926,8 @@
       <c r="B384" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="C384" s="3" t="s">
-        <v>1032</v>
+      <c r="C384" s="3">
+        <v>1</v>
       </c>
       <c r="D384" s="41" t="s">
         <v>161</v>
@@ -35664,7 +35664,7 @@
   <dimension ref="A1:I1002"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Leetcode_note.xlsx
+++ b/Leetcode_note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E03EA-9900-4717-9D0B-D7A89E62A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2C787F-1921-4B6C-B4DF-1C40331188D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4088" uniqueCount="1037">
   <si>
     <t>Index</t>
   </si>
@@ -1674,6 +1674,7 @@
         <sz val="11"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://leetcode.com/problems/equal-row-and-column-pairs/discuss/2324688/Cubic-(432)-vs.-Three-Map-(95)-vs.-Trie-(137)</t>
     </r>
@@ -3172,6 +3173,15 @@
   </si>
   <si>
     <t>Count digits equal to 1</t>
+  </si>
+  <si>
+    <t>2460. Apply Operations to an Array</t>
+  </si>
+  <si>
+    <t>2461. Maximum Sum of Distinct Subarrays With Length K</t>
+  </si>
+  <si>
+    <t>2462. Total Cost to Hire K Workers</t>
   </si>
 </sst>
 </file>
@@ -3181,7 +3191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3227,28 +3237,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3260,6 +3282,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3271,18 +3294,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3293,11 +3319,13 @@
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3305,11 +3333,13 @@
       <sz val="6"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3321,6 +3351,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3328,6 +3359,7 @@
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3335,84 +3367,98 @@
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3555,337 +3601,344 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4112,9 +4165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C385" sqref="C385"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A452" sqref="A452:E452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16971,8 +17024,8 @@
       <c r="B385" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C385" s="3" t="s">
-        <v>1032</v>
+      <c r="C385" s="3">
+        <v>1</v>
       </c>
       <c r="D385" s="41" t="s">
         <v>19</v>
@@ -17018,8 +17071,8 @@
       <c r="B386" s="45" t="s">
         <v>624</v>
       </c>
-      <c r="C386" s="3" t="s">
-        <v>1032</v>
+      <c r="C386" s="3">
+        <v>1</v>
       </c>
       <c r="D386" s="41" t="s">
         <v>161</v>
@@ -17067,8 +17120,8 @@
       <c r="B387" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="C387" s="3" t="s">
-        <v>1032</v>
+      <c r="C387" s="3">
+        <v>1</v>
       </c>
       <c r="D387" s="41" t="s">
         <v>161</v>
@@ -17116,8 +17169,8 @@
       <c r="B388" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="C388" s="3" t="s">
-        <v>1032</v>
+      <c r="C388" s="3">
+        <v>1</v>
       </c>
       <c r="D388" s="41" t="s">
         <v>16</v>
@@ -17165,8 +17218,8 @@
       <c r="B389" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="C389" s="3" t="s">
-        <v>1032</v>
+      <c r="C389" s="3">
+        <v>1</v>
       </c>
       <c r="D389" s="41" t="s">
         <v>161</v>
@@ -17314,8 +17367,8 @@
       <c r="B392" s="41" t="s">
         <v>630</v>
       </c>
-      <c r="C392" s="3" t="s">
-        <v>1032</v>
+      <c r="C392" s="3">
+        <v>1</v>
       </c>
       <c r="D392" s="41" t="s">
         <v>19</v>
@@ -17363,8 +17416,8 @@
       <c r="B393" s="41" t="s">
         <v>631</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>1032</v>
+      <c r="C393" s="3">
+        <v>1</v>
       </c>
       <c r="D393" s="41" t="s">
         <v>161</v>
@@ -17410,8 +17463,8 @@
       <c r="B394" s="41" t="s">
         <v>632</v>
       </c>
-      <c r="C394" s="3" t="s">
-        <v>1032</v>
+      <c r="C394" s="3">
+        <v>1</v>
       </c>
       <c r="D394" s="41" t="s">
         <v>19</v>
@@ -17455,14 +17508,14 @@
       <c r="AC394" s="41"/>
     </row>
     <row r="395" spans="1:29" ht="15" customHeight="1">
-      <c r="A395" s="3">
+      <c r="A395" s="97">
         <v>659</v>
       </c>
       <c r="B395" s="41" t="s">
         <v>633</v>
       </c>
-      <c r="C395" s="3" t="s">
-        <v>1032</v>
+      <c r="C395" s="3">
+        <v>1</v>
       </c>
       <c r="D395" s="41" t="s">
         <v>19</v>
@@ -17471,9 +17524,11 @@
         <v>76</v>
       </c>
       <c r="F395" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G395" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G395" s="41"/>
       <c r="H395" s="42">
         <v>44792</v>
       </c>
@@ -17508,8 +17563,8 @@
       <c r="B396" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="C396" s="3" t="s">
-        <v>1032</v>
+      <c r="C396" s="3">
+        <v>1</v>
       </c>
       <c r="D396" s="41" t="s">
         <v>161</v>
@@ -17555,8 +17610,8 @@
       <c r="B397" s="41" t="s">
         <v>635</v>
       </c>
-      <c r="C397" s="3" t="s">
-        <v>1032</v>
+      <c r="C397" s="3">
+        <v>1</v>
       </c>
       <c r="D397" s="41" t="s">
         <v>19</v>
@@ -17606,8 +17661,8 @@
       <c r="B398" s="41" t="s">
         <v>638</v>
       </c>
-      <c r="C398" s="3" t="s">
-        <v>1032</v>
+      <c r="C398" s="3">
+        <v>1</v>
       </c>
       <c r="D398" s="41" t="s">
         <v>161</v>
@@ -19968,6 +20023,18 @@
       <c r="AC449" s="41"/>
     </row>
     <row r="450" spans="1:29" ht="15" customHeight="1">
+      <c r="A450" s="94">
+        <v>2460</v>
+      </c>
+      <c r="B450" s="41" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D450" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E450" s="142" t="s">
+        <v>84</v>
+      </c>
       <c r="I450" s="41"/>
       <c r="J450" s="41"/>
       <c r="K450" s="41"/>
@@ -19991,9 +20058,18 @@
       <c r="AC450" s="41"/>
     </row>
     <row r="451" spans="1:29" ht="15" customHeight="1">
-      <c r="B451" s="95"/>
-      <c r="D451" s="95"/>
-      <c r="E451" s="96"/>
+      <c r="A451" s="94">
+        <v>2461</v>
+      </c>
+      <c r="B451" s="41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D451" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E451" s="142" t="s">
+        <v>515</v>
+      </c>
       <c r="H451" s="42"/>
       <c r="I451" s="41"/>
       <c r="J451" s="41"/>
@@ -20018,9 +20094,18 @@
       <c r="AC451" s="41"/>
     </row>
     <row r="452" spans="1:29" ht="15" customHeight="1">
-      <c r="B452" s="95"/>
-      <c r="D452" s="95"/>
-      <c r="E452" s="96"/>
+      <c r="A452" s="94">
+        <v>2462</v>
+      </c>
+      <c r="B452" s="41" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D452" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E452" s="142" t="s">
+        <v>33</v>
+      </c>
       <c r="H452" s="42"/>
       <c r="I452" s="41"/>
       <c r="J452" s="41"/>
@@ -30058,10 +30143,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -30102,7 +30187,7 @@
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="124" t="s">
         <v>766</v>
       </c>
     </row>
@@ -30116,7 +30201,7 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="112"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
@@ -30240,8 +30325,19 @@
       <c r="A14" s="3">
         <v>2332</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="41" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="3">
+        <v>936</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -30468,10 +30564,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -30552,7 +30648,7 @@
       <c r="C6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="125" t="s">
         <v>793</v>
       </c>
     </row>
@@ -30566,7 +30662,7 @@
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="125"/>
+      <c r="D7" s="126"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5">
@@ -30578,7 +30674,7 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="125"/>
+      <c r="D8" s="126"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="41">
@@ -30641,6 +30737,20 @@
         <v>19</v>
       </c>
       <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="A14" s="94">
+        <v>2462</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="142" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30658,7 +30768,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -35050,9 +35160,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -35199,103 +35311,116 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="39">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="39">
         <v>357</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="127" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="44">
+    <row r="13" spans="1:5">
+      <c r="A13" s="44">
         <v>2376</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B13" s="41" t="s">
         <v>624</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="41">
-        <v>1012</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>776</v>
-      </c>
+      <c r="D13" s="114"/>
       <c r="E13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="44">
-        <v>869</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>657</v>
+      <c r="A14" s="41">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>625</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>322</v>
+        <v>161</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="44">
-        <v>2396</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>674</v>
-      </c>
+      <c r="A15" s="41"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="44">
-        <v>2400</v>
+        <v>869</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="44">
+        <v>2396</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="44">
+        <v>2400</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>680</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E18" s="41" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D12:D14"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -35514,7 +35639,7 @@
       <c r="C16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="126" t="s">
+      <c r="D16" s="128" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -35531,7 +35656,7 @@
       <c r="C17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="127"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="5" t="s">
         <v>517</v>
       </c>
@@ -35664,7 +35789,7 @@
   <dimension ref="A1:I1002"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -36228,7 +36353,7 @@
       <c r="D38" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E38" s="129" t="s">
+      <c r="E38" s="131" t="s">
         <v>63</v>
       </c>
     </row>
@@ -36245,7 +36370,7 @@
       <c r="D39" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E39" s="130"/>
+      <c r="E39" s="132"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4"/>
@@ -36267,7 +36392,7 @@
       <c r="D41" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E41" s="129" t="s">
+      <c r="E41" s="131" t="s">
         <v>177</v>
       </c>
     </row>
@@ -36284,7 +36409,7 @@
       <c r="D42" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E42" s="130" t="s">
+      <c r="E42" s="132" t="s">
         <v>177</v>
       </c>
     </row>
@@ -36557,7 +36682,7 @@
       <c r="C62" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="128" t="s">
+      <c r="D62" s="130" t="s">
         <v>783</v>
       </c>
       <c r="E62" s="41" t="s">
@@ -36578,7 +36703,7 @@
       <c r="C63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="111"/>
+      <c r="D63" s="112"/>
       <c r="E63" s="4" t="s">
         <v>785</v>
       </c>
@@ -36615,7 +36740,7 @@
       <c r="C66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="131" t="s">
+      <c r="D66" s="133" t="s">
         <v>609</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -36635,7 +36760,7 @@
       <c r="C67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="111"/>
+      <c r="D67" s="112"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:6">
@@ -36648,7 +36773,7 @@
       <c r="C68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="111"/>
+      <c r="D68" s="112"/>
       <c r="E68" s="4" t="s">
         <v>63</v>
       </c>
@@ -36666,7 +36791,7 @@
       <c r="C69" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="111"/>
+      <c r="D69" s="112"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:6">
@@ -43760,7 +43885,7 @@
       <c r="C25" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="132" t="s">
+      <c r="D25" s="134" t="s">
         <v>147</v>
       </c>
     </row>
@@ -43769,7 +43894,7 @@
         <v>85</v>
       </c>
       <c r="C26" s="49"/>
-      <c r="D26" s="132"/>
+      <c r="D26" s="134"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="46">
@@ -43779,7 +43904,7 @@
         <v>617</v>
       </c>
       <c r="C27" s="49"/>
-      <c r="D27" s="132"/>
+      <c r="D27" s="134"/>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="5"/>
@@ -46826,7 +46951,7 @@
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="135" t="s">
         <v>801</v>
       </c>
     </row>
@@ -46840,7 +46965,7 @@
       <c r="C6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="111"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5">
@@ -46883,7 +47008,7 @@
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="135" t="s">
         <v>803</v>
       </c>
     </row>
@@ -46897,7 +47022,7 @@
       <c r="C11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="111"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
@@ -47088,7 +47213,7 @@
       <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="137" t="s">
         <v>1028</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -47105,7 +47230,7 @@
       <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="136"/>
+      <c r="D25" s="138"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="32">
@@ -47131,7 +47256,7 @@
       <c r="C27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="137" t="s">
+      <c r="D27" s="139" t="s">
         <v>804</v>
       </c>
     </row>
@@ -47145,7 +47270,7 @@
       <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="138"/>
+      <c r="D28" s="140"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3">
@@ -47276,7 +47401,7 @@
       <c r="C38" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="134" t="s">
+      <c r="D38" s="136" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="4"/>
@@ -47291,7 +47416,7 @@
       <c r="C39" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="111"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="5" t="s">
         <v>76</v>
       </c>
@@ -50311,7 +50436,7 @@
       <c r="C5" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="141" t="s">
         <v>234</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -50329,7 +50454,7 @@
       <c r="C6" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="111"/>
+      <c r="D6" s="112"/>
       <c r="F6" s="41"/>
     </row>
   </sheetData>
@@ -60533,8 +60658,8 @@
   </sheetPr>
   <dimension ref="A1:G1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E57" sqref="E56:E57"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -60792,7 +60917,7 @@
       <c r="C20" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="111" t="s">
         <v>719</v>
       </c>
     </row>
@@ -60806,7 +60931,7 @@
       <c r="C21" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="111"/>
+      <c r="D21" s="112"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="100">
@@ -60816,7 +60941,7 @@
       <c r="C22" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="111"/>
+      <c r="D22" s="112"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="25">
@@ -61025,7 +61150,7 @@
       <c r="C38" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="113" t="s">
         <v>721</v>
       </c>
     </row>
@@ -61039,7 +61164,7 @@
       <c r="C39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="113"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="5" t="s">
         <v>522</v>
       </c>
@@ -61055,7 +61180,7 @@
       <c r="C40" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="113"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="5" t="s">
         <v>522</v>
       </c>
@@ -61127,13 +61252,13 @@
       <c r="C45" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="112" t="s">
+      <c r="D45" s="113" t="s">
         <v>119</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="F45" s="110" t="s">
+      <c r="F45" s="111" t="s">
         <v>722</v>
       </c>
     </row>
@@ -61147,8 +61272,8 @@
       <c r="C46" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="113"/>
-      <c r="F46" s="111"/>
+      <c r="D46" s="114"/>
+      <c r="F46" s="112"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="13">
@@ -61160,8 +61285,8 @@
       <c r="C47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="113"/>
-      <c r="F47" s="111"/>
+      <c r="D47" s="114"/>
+      <c r="F47" s="112"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3">
@@ -61244,7 +61369,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:5"/>
+    <row r="54" spans="1:5">
+      <c r="A54" s="94">
+        <v>2460</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="142" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="55" spans="1:5">
       <c r="A55" s="25"/>
       <c r="B55" s="49"/>
@@ -66254,7 +66392,7 @@
       <c r="D18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="114" t="s">
+      <c r="E18" s="115" t="s">
         <v>727</v>
       </c>
     </row>
@@ -66271,7 +66409,7 @@
       <c r="D19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="111"/>
+      <c r="E19" s="112"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="52">
@@ -66284,7 +66422,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="111"/>
+      <c r="E20" s="112"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5">
@@ -70441,7 +70579,7 @@
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="116" t="s">
         <v>322</v>
       </c>
     </row>
@@ -70455,7 +70593,7 @@
       <c r="C12" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:7">
@@ -70468,7 +70606,7 @@
       <c r="C13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="111"/>
+      <c r="D13" s="112"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="44">
@@ -70537,7 +70675,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="119" t="s">
         <v>734</v>
       </c>
       <c r="B2" s="5">
@@ -70554,7 +70692,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="111"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="5">
         <v>40</v>
       </c>
@@ -70566,7 +70704,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="111"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="5">
         <v>78</v>
       </c>
@@ -70578,7 +70716,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="111"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="5">
         <v>90</v>
       </c>
@@ -70590,7 +70728,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="111"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="5">
         <v>46</v>
       </c>
@@ -70602,7 +70740,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="111"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="5">
         <v>47</v>
       </c>
@@ -70614,7 +70752,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="117" t="s">
         <v>738</v>
       </c>
       <c r="B8" s="5">
@@ -70628,7 +70766,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="111"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="5">
         <v>127</v>
       </c>
@@ -70640,7 +70778,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="111"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="5">
         <v>490</v>
       </c>
@@ -70652,7 +70790,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="111"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="5">
         <v>210</v>
       </c>
@@ -70664,7 +70802,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="111"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="5">
         <v>269</v>
       </c>
@@ -70676,7 +70814,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="119" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="5">
@@ -70690,7 +70828,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="111"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="5">
         <v>236</v>
       </c>
@@ -70702,7 +70840,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="111"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="5">
         <v>297</v>
       </c>
@@ -70714,7 +70852,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="111"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="5">
         <v>98</v>
       </c>
@@ -70726,7 +70864,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="111"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="5">
         <v>102</v>
       </c>
@@ -70738,7 +70876,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="117" t="s">
         <v>664</v>
       </c>
       <c r="B18" s="5">
@@ -70752,7 +70890,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="111"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="5">
         <v>62</v>
       </c>
@@ -70764,7 +70902,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="111"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="5">
         <v>69</v>
       </c>
@@ -70776,7 +70914,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="118" t="s">
         <v>748</v>
       </c>
       <c r="B21" s="5">
@@ -70790,7 +70928,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="111"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="5">
         <v>133</v>
       </c>
@@ -70802,7 +70940,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="111"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="5">
         <v>155</v>
       </c>
@@ -70814,7 +70952,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="111"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="5">
         <v>225</v>
       </c>
@@ -70826,7 +70964,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="111"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="5">
         <v>215</v>
       </c>
@@ -70838,7 +70976,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="111"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="5">
         <v>23</v>
       </c>
@@ -70850,7 +70988,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="111"/>
+      <c r="A27" s="112"/>
       <c r="B27" s="5">
         <v>127</v>
       </c>
@@ -70862,7 +71000,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="117" t="s">
         <v>752</v>
       </c>
       <c r="B28" s="5">
@@ -70876,7 +71014,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="111"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="5">
         <v>92</v>
       </c>
@@ -70888,7 +71026,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="111"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="5">
         <v>876</v>
       </c>
@@ -70900,7 +71038,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="111"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="5">
         <v>148</v>
       </c>
@@ -70912,7 +71050,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="111"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="5">
         <v>143</v>
       </c>
@@ -70924,7 +71062,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="118" t="s">
         <v>754</v>
       </c>
       <c r="B33" s="5">
@@ -70938,7 +71076,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="111"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="5">
         <v>3</v>
       </c>
@@ -70950,7 +71088,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="111"/>
+      <c r="A35" s="112"/>
       <c r="B35" s="5">
         <v>76</v>
       </c>
@@ -70962,7 +71100,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="117" t="s">
         <v>401</v>
       </c>
       <c r="B36" s="5">
@@ -70976,7 +71114,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="111"/>
+      <c r="A37" s="112"/>
       <c r="B37" s="5">
         <v>1066</v>
       </c>
@@ -70988,7 +71126,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="111"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="5">
         <v>49</v>
       </c>
@@ -71169,7 +71307,7 @@
       <c r="C2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="120" t="s">
         <v>26</v>
       </c>
     </row>
@@ -71183,7 +71321,7 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5">
@@ -71610,7 +71748,7 @@
       <c r="C39" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="119" t="s">
+      <c r="D39" s="120" t="s">
         <v>762</v>
       </c>
     </row>
@@ -71624,7 +71762,7 @@
       <c r="C40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="111"/>
+      <c r="D40" s="112"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="22">
@@ -71636,7 +71774,7 @@
       <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="111"/>
+      <c r="D41" s="112"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="46">
@@ -71652,7 +71790,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="5"/>
-      <c r="D43" s="119" t="s">
+      <c r="D43" s="120" t="s">
         <v>355</v>
       </c>
     </row>
@@ -71666,7 +71804,7 @@
       <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="111"/>
+      <c r="D44" s="112"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="48">
@@ -71678,7 +71816,7 @@
       <c r="C45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="111"/>
+      <c r="D45" s="112"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="48">
@@ -71690,7 +71828,7 @@
       <c r="C46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="111"/>
+      <c r="D46" s="112"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="48">
@@ -71775,7 +71913,7 @@
       <c r="C54" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="120" t="s">
+      <c r="D54" s="121" t="s">
         <v>391</v>
       </c>
       <c r="E54" s="4"/>
@@ -71791,7 +71929,7 @@
       <c r="C55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="111"/>
+      <c r="D55" s="112"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
@@ -71805,7 +71943,7 @@
       <c r="C56" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="111"/>
+      <c r="D56" s="112"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
@@ -71844,7 +71982,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="120" t="s">
+      <c r="D60" s="121" t="s">
         <v>410</v>
       </c>
     </row>
@@ -71858,7 +71996,7 @@
       <c r="C61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="111"/>
+      <c r="D61" s="112"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
@@ -72049,7 +72187,7 @@
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="122" t="s">
         <v>789</v>
       </c>
     </row>
@@ -72063,7 +72201,7 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="122"/>
+      <c r="D10" s="123"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5">

--- a/Leetcode_note.xlsx
+++ b/Leetcode_note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BBCA08-B4DA-47E8-A003-7E820C09F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE661A21-7BE9-41A9-8D97-C45506645C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="1043">
   <si>
     <t>Index</t>
   </si>
@@ -3198,6 +3198,9 @@
   </si>
   <si>
     <t>Search in array</t>
+  </si>
+  <si>
+    <t>Sort to simplify the problem</t>
   </si>
 </sst>
 </file>
@@ -4209,9 +4212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O418" sqref="O418"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A420" sqref="A420:F420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18492,8 +18495,8 @@
       <c r="B415" s="41" t="s">
         <v>657</v>
       </c>
-      <c r="C415" s="3" t="s">
-        <v>1032</v>
+      <c r="C415" s="3">
+        <v>1</v>
       </c>
       <c r="D415" s="41" t="s">
         <v>19</v>
@@ -18502,7 +18505,7 @@
         <v>322</v>
       </c>
       <c r="F415" s="41" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G415" s="41" t="s">
         <v>658</v>
@@ -18541,8 +18544,8 @@
       <c r="B416" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="C416" s="3" t="s">
-        <v>1032</v>
+      <c r="C416" s="3">
+        <v>1</v>
       </c>
       <c r="D416" s="41" t="s">
         <v>161</v>
@@ -18658,8 +18661,8 @@
       <c r="B419" s="41" t="s">
         <v>661</v>
       </c>
-      <c r="C419" s="3" t="s">
-        <v>1032</v>
+      <c r="C419" s="3">
+        <v>1</v>
       </c>
       <c r="D419" s="41" t="s">
         <v>16</v>
@@ -18707,8 +18710,8 @@
       <c r="B420" s="41" t="s">
         <v>663</v>
       </c>
-      <c r="C420" s="3" t="s">
-        <v>1032</v>
+      <c r="C420" s="3">
+        <v>1</v>
       </c>
       <c r="D420" s="41" t="s">
         <v>16</v>
@@ -47026,10 +47029,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -47074,6 +47077,20 @@
       </c>
       <c r="D3" s="107" t="s">
         <v>1030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="3">
+        <v>2389</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -66351,9 +66368,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1004"/>
+  <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -66675,22 +66694,29 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="3">
+        <v>2389</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="49"/>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
     </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-    </row>
+    <row r="28" spans="1:5"/>
     <row r="29" spans="1:5">
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -70590,10 +70616,6 @@
     <row r="1003" spans="2:3">
       <c r="B1003" s="49"/>
       <c r="C1003" s="49"/>
-    </row>
-    <row r="1004" spans="2:3">
-      <c r="B1004" s="49"/>
-      <c r="C1004" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -70608,10 +70630,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -70826,6 +70848,20 @@
       </c>
       <c r="D15" s="41" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="13">
+        <v>869</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -72272,10 +72308,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -72607,6 +72643,23 @@
         <v>177</v>
       </c>
     </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="13">
+        <v>834</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>660</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D9:D10"/>

--- a/Leetcode_note.xlsx
+++ b/Leetcode_note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE661A21-7BE9-41A9-8D97-C45506645C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C32BD7-8D17-4C07-BA01-C08BEA85C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="1043">
   <si>
     <t>Index</t>
   </si>
@@ -4212,9 +4212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1256"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A420" sqref="A420:F420"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18763,8 +18763,8 @@
       <c r="B421" s="41" t="s">
         <v>665</v>
       </c>
-      <c r="C421" s="3" t="s">
-        <v>1032</v>
+      <c r="C421" s="3">
+        <v>1</v>
       </c>
       <c r="D421" s="41" t="s">
         <v>19</v>
@@ -18812,8 +18812,8 @@
       <c r="B422" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="C422" s="3" t="s">
-        <v>1032</v>
+      <c r="C422" s="3">
+        <v>1</v>
       </c>
       <c r="D422" s="41" t="s">
         <v>19</v>
@@ -18861,8 +18861,8 @@
       <c r="B423" s="41" t="s">
         <v>667</v>
       </c>
-      <c r="C423" s="3" t="s">
-        <v>1032</v>
+      <c r="C423" s="3">
+        <v>1</v>
       </c>
       <c r="D423" s="41" t="s">
         <v>161</v>
@@ -18908,8 +18908,8 @@
       <c r="B424" s="41" t="s">
         <v>670</v>
       </c>
-      <c r="C424" s="3" t="s">
-        <v>1032</v>
+      <c r="C424" s="3">
+        <v>1</v>
       </c>
       <c r="D424" s="41" t="s">
         <v>19</v>
@@ -18957,8 +18957,8 @@
       <c r="B425" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="C425" s="3" t="s">
-        <v>1032</v>
+      <c r="C425" s="3">
+        <v>1</v>
       </c>
       <c r="D425" s="41" t="s">
         <v>19</v>
@@ -19008,8 +19008,8 @@
       <c r="B426" s="41" t="s">
         <v>672</v>
       </c>
-      <c r="C426" s="3" t="s">
-        <v>1032</v>
+      <c r="C426" s="3">
+        <v>1</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>16</v>
@@ -19056,8 +19056,8 @@
       <c r="B427" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="C427" s="3" t="s">
-        <v>1032</v>
+      <c r="C427" s="3">
+        <v>1</v>
       </c>
       <c r="D427" s="41" t="s">
         <v>19</v>
@@ -66370,8 +66370,8 @@
   </sheetPr>
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Leetcode_note.xlsx
+++ b/Leetcode_note.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C32BD7-8D17-4C07-BA01-C08BEA85C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A7ED4D-BBD7-4359-8582-C332139E1B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="1043">
   <si>
     <t>Index</t>
   </si>
@@ -3210,11 +3210,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3643,347 +3650,345 @@
   </cellStyleXfs>
   <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4213,15 +4218,15 @@
   <dimension ref="A1:AC1256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C428" sqref="C428"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="94" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="93" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="94" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="93" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -4292,7 +4297,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -4318,7 +4323,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -5311,7 +5316,7 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="94">
+      <c r="A36" s="93">
         <v>322</v>
       </c>
       <c r="B36" s="41" t="s">
@@ -5320,7 +5325,7 @@
       <c r="D36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="114" t="s">
+      <c r="E36" s="113" t="s">
         <v>488</v>
       </c>
       <c r="F36" s="4"/>
@@ -5349,10 +5354,10 @@
       <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="114" t="s">
         <v>1041</v>
       </c>
-      <c r="G37" s="115" t="s">
+      <c r="G37" s="114" t="s">
         <v>1040</v>
       </c>
       <c r="H37" s="10">
@@ -13025,7 +13030,7 @@
       <c r="A273" s="13">
         <v>1944</v>
       </c>
-      <c r="B273" s="101" t="s">
+      <c r="B273" s="100" t="s">
         <v>464</v>
       </c>
       <c r="C273" s="1">
@@ -13341,7 +13346,7 @@
       <c r="E282" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F282" s="94" t="s">
+      <c r="F282" s="93" t="s">
         <v>76</v>
       </c>
       <c r="G282" s="37" t="s">
@@ -13981,7 +13986,7 @@
       </c>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
-      <c r="G303" s="106" t="s">
+      <c r="G303" s="105" t="s">
         <v>508</v>
       </c>
       <c r="H303" s="35">
@@ -14185,7 +14190,7 @@
       <c r="B311" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="C311" s="94">
+      <c r="C311" s="93">
         <v>1</v>
       </c>
       <c r="D311" s="5" t="s">
@@ -14210,7 +14215,7 @@
       <c r="B312" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="C312" s="94">
+      <c r="C312" s="93">
         <v>1</v>
       </c>
       <c r="D312" s="5" t="s">
@@ -14271,7 +14276,7 @@
       <c r="B314" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C314" s="94">
+      <c r="C314" s="93">
         <v>1</v>
       </c>
       <c r="D314" s="5" t="s">
@@ -14300,7 +14305,7 @@
       <c r="B315" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C315" s="94">
+      <c r="C315" s="93">
         <v>1</v>
       </c>
       <c r="D315" s="5" t="s">
@@ -14324,7 +14329,7 @@
       <c r="B316" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C316" s="94">
+      <c r="C316" s="93">
         <v>1</v>
       </c>
       <c r="D316" s="5" t="s">
@@ -14354,7 +14359,7 @@
       <c r="B317" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C317" s="94">
+      <c r="C317" s="93">
         <v>1</v>
       </c>
       <c r="D317" s="5" t="s">
@@ -14421,7 +14426,7 @@
       <c r="B319" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C319" s="94">
+      <c r="C319" s="93">
         <v>1</v>
       </c>
       <c r="D319" s="5" t="s">
@@ -14469,7 +14474,7 @@
       <c r="B321" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C321" s="94">
+      <c r="C321" s="93">
         <v>1</v>
       </c>
       <c r="D321" s="5" t="s">
@@ -14496,7 +14501,7 @@
       <c r="B322" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C322" s="94">
+      <c r="C322" s="93">
         <v>1</v>
       </c>
       <c r="D322" s="5" t="s">
@@ -14520,7 +14525,7 @@
       <c r="B323" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C323" s="94">
+      <c r="C323" s="93">
         <v>1</v>
       </c>
       <c r="D323" s="5" t="s">
@@ -14544,7 +14549,7 @@
       <c r="B324" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C324" s="94">
+      <c r="C324" s="93">
         <v>1</v>
       </c>
       <c r="D324" s="5" t="s">
@@ -14574,7 +14579,7 @@
       <c r="B325" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C325" s="94">
+      <c r="C325" s="93">
         <v>1</v>
       </c>
       <c r="D325" s="5" t="s">
@@ -14601,7 +14606,7 @@
       <c r="B326" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C326" s="94">
+      <c r="C326" s="93">
         <v>1</v>
       </c>
       <c r="D326" s="5" t="s">
@@ -14631,7 +14636,7 @@
       <c r="B327" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C327" s="94">
+      <c r="C327" s="93">
         <v>1</v>
       </c>
       <c r="D327" s="5" t="s">
@@ -14655,7 +14660,7 @@
       <c r="B328" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="C328" s="94">
+      <c r="C328" s="93">
         <v>1</v>
       </c>
       <c r="D328" s="5" t="s">
@@ -14682,7 +14687,7 @@
       <c r="B329" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="C329" s="94">
+      <c r="C329" s="93">
         <v>1</v>
       </c>
       <c r="D329" s="5" t="s">
@@ -14712,7 +14717,7 @@
       <c r="B330" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C330" s="94">
+      <c r="C330" s="93">
         <v>1</v>
       </c>
       <c r="D330" s="5" t="s">
@@ -14744,7 +14749,7 @@
       <c r="B331" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C331" s="94">
+      <c r="C331" s="93">
         <v>1</v>
       </c>
       <c r="D331" s="5" t="s">
@@ -14773,7 +14778,7 @@
       <c r="B332" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C332" s="94">
+      <c r="C332" s="93">
         <v>1</v>
       </c>
       <c r="D332" s="5" t="s">
@@ -14808,7 +14813,7 @@
       <c r="B333" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C333" s="94">
+      <c r="C333" s="93">
         <v>1</v>
       </c>
       <c r="D333" s="5" t="s">
@@ -14837,7 +14842,7 @@
       <c r="B334" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C334" s="94">
+      <c r="C334" s="93">
         <v>1</v>
       </c>
       <c r="D334" s="1" t="s">
@@ -14867,7 +14872,7 @@
       <c r="B335" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C335" s="94">
+      <c r="C335" s="93">
         <v>1</v>
       </c>
       <c r="D335" s="5" t="s">
@@ -14899,7 +14904,7 @@
       <c r="B336" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="C336" s="94">
+      <c r="C336" s="93">
         <v>1</v>
       </c>
       <c r="D336" s="5" t="s">
@@ -14931,7 +14936,7 @@
       <c r="B337" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C337" s="94">
+      <c r="C337" s="93">
         <v>1</v>
       </c>
       <c r="D337" s="5" t="s">
@@ -14960,7 +14965,7 @@
       <c r="B338" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C338" s="94">
+      <c r="C338" s="93">
         <v>1</v>
       </c>
       <c r="D338" s="5" t="s">
@@ -14984,7 +14989,7 @@
       <c r="B339" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C339" s="94">
+      <c r="C339" s="93">
         <v>1</v>
       </c>
       <c r="D339" s="5" t="s">
@@ -15011,7 +15016,7 @@
       <c r="B340" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C340" s="94">
+      <c r="C340" s="93">
         <v>1</v>
       </c>
       <c r="D340" s="5" t="s">
@@ -15035,7 +15040,7 @@
       <c r="B341" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C341" s="94" t="s">
+      <c r="C341" s="93" t="s">
         <v>1032</v>
       </c>
       <c r="D341" s="5" t="s">
@@ -15062,7 +15067,7 @@
       <c r="B342" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="C342" s="94">
+      <c r="C342" s="93">
         <v>1</v>
       </c>
       <c r="D342" s="5" t="s">
@@ -15092,16 +15097,16 @@
       <c r="B343" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C343" s="94">
+      <c r="C343" s="93">
         <v>1</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E343" s="108" t="s">
+      <c r="E343" s="107" t="s">
         <v>472</v>
       </c>
-      <c r="F343" s="108" t="s">
+      <c r="F343" s="107" t="s">
         <v>177</v>
       </c>
       <c r="H343" s="35">
@@ -15119,7 +15124,7 @@
       <c r="B344" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C344" s="94" t="s">
+      <c r="C344" s="93" t="s">
         <v>1032</v>
       </c>
       <c r="D344" s="5" t="s">
@@ -15891,7 +15896,7 @@
       <c r="A360" s="3">
         <v>2364</v>
       </c>
-      <c r="B360" s="109" t="s">
+      <c r="B360" s="108" t="s">
         <v>591</v>
       </c>
       <c r="C360" s="3">
@@ -16595,7 +16600,7 @@
       <c r="A375" s="63">
         <v>301</v>
       </c>
-      <c r="B375" s="109" t="s">
+      <c r="B375" s="108" t="s">
         <v>608</v>
       </c>
       <c r="C375" s="3">
@@ -16610,7 +16615,7 @@
       <c r="F375" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G375" s="95" t="s">
+      <c r="G375" s="94" t="s">
         <v>234</v>
       </c>
       <c r="H375" s="42">
@@ -17582,7 +17587,7 @@
       <c r="AC395" s="41"/>
     </row>
     <row r="396" spans="1:29" ht="15" customHeight="1">
-      <c r="A396" s="97">
+      <c r="A396" s="96">
         <v>659</v>
       </c>
       <c r="B396" s="41" t="s">
@@ -19107,16 +19112,13 @@
       <c r="B428" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="C428" s="3" t="s">
-        <v>1032</v>
+      <c r="C428" s="3">
+        <v>1</v>
       </c>
       <c r="D428" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E428" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="F428" s="41" t="s">
         <v>138</v>
       </c>
       <c r="G428" s="41"/>
@@ -19156,8 +19158,8 @@
       <c r="B429" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="C429" s="3" t="s">
-        <v>1032</v>
+      <c r="C429" s="3">
+        <v>1</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>161</v>
@@ -19207,8 +19209,8 @@
       <c r="B430" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="C430" s="3" t="s">
-        <v>1032</v>
+      <c r="C430" s="3">
+        <v>1</v>
       </c>
       <c r="D430" s="41" t="s">
         <v>16</v>
@@ -19250,8 +19252,8 @@
       <c r="B431" s="41" t="s">
         <v>680</v>
       </c>
-      <c r="C431" s="3" t="s">
-        <v>1032</v>
+      <c r="C431" s="3">
+        <v>1</v>
       </c>
       <c r="D431" s="41" t="s">
         <v>19</v>
@@ -19297,8 +19299,8 @@
       <c r="B432" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="C432" s="3" t="s">
-        <v>1032</v>
+      <c r="C432" s="3">
+        <v>1</v>
       </c>
       <c r="D432" s="41" t="s">
         <v>19</v>
@@ -19344,8 +19346,8 @@
       <c r="B433" s="41" t="s">
         <v>682</v>
       </c>
-      <c r="C433" s="3" t="s">
-        <v>1032</v>
+      <c r="C433" s="3">
+        <v>1</v>
       </c>
       <c r="D433" s="41" t="s">
         <v>161</v>
@@ -19389,8 +19391,8 @@
       <c r="B434" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="C434" s="3" t="s">
-        <v>1032</v>
+      <c r="C434" s="3">
+        <v>1</v>
       </c>
       <c r="D434" s="41" t="s">
         <v>16</v>
@@ -19434,8 +19436,8 @@
       <c r="B435" s="41" t="s">
         <v>1010</v>
       </c>
-      <c r="C435" s="3" t="s">
-        <v>1032</v>
+      <c r="C435" s="3">
+        <v>1</v>
       </c>
       <c r="D435" s="41" t="s">
         <v>19</v>
@@ -19471,14 +19473,14 @@
       <c r="AC435" s="41"/>
     </row>
     <row r="436" spans="1:29" ht="15" customHeight="1">
-      <c r="A436" s="93">
+      <c r="A436" s="13">
         <v>2406</v>
       </c>
       <c r="B436" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="C436" s="3" t="s">
-        <v>1032</v>
+      <c r="C436" s="3">
+        <v>1</v>
       </c>
       <c r="D436" s="41" t="s">
         <v>19</v>
@@ -19486,8 +19488,12 @@
       <c r="E436" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F436" s="41"/>
-      <c r="G436" s="41"/>
+      <c r="F436" s="41" t="s">
+        <v>664</v>
+      </c>
+      <c r="G436" s="41" t="s">
+        <v>367</v>
+      </c>
       <c r="H436" s="42">
         <v>44814</v>
       </c>
@@ -19514,7 +19520,9 @@
       <c r="AC436" s="41"/>
     </row>
     <row r="437" spans="1:29" ht="15" customHeight="1">
-      <c r="A437" s="3"/>
+      <c r="A437" s="3">
+        <v>2407</v>
+      </c>
       <c r="B437" s="41" t="s">
         <v>1014</v>
       </c>
@@ -19559,16 +19567,16 @@
       <c r="B438" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="C438" s="3" t="s">
-        <v>1032</v>
+      <c r="C438" s="3">
+        <v>1</v>
       </c>
       <c r="D438" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E438" s="95" t="s">
+      <c r="E438" s="94" t="s">
         <v>897</v>
       </c>
-      <c r="F438" s="95" t="s">
+      <c r="F438" s="94" t="s">
         <v>1016</v>
       </c>
       <c r="G438" s="41"/>
@@ -19601,19 +19609,19 @@
       <c r="A439" s="3">
         <v>2410</v>
       </c>
-      <c r="B439" s="95" t="s">
+      <c r="B439" s="94" t="s">
         <v>1017</v>
       </c>
-      <c r="C439" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D439" s="95" t="s">
+      <c r="C439" s="3">
+        <v>1</v>
+      </c>
+      <c r="D439" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E439" s="95" t="s">
+      <c r="E439" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="F439" s="95" t="s">
+      <c r="F439" s="94" t="s">
         <v>282</v>
       </c>
       <c r="G439" s="41"/>
@@ -19643,22 +19651,22 @@
       <c r="AC439" s="41"/>
     </row>
     <row r="440" spans="1:29" ht="15" customHeight="1">
-      <c r="A440" s="94">
+      <c r="A440" s="93">
         <v>2411</v>
       </c>
-      <c r="B440" s="95" t="s">
+      <c r="B440" s="94" t="s">
         <v>1018</v>
       </c>
-      <c r="C440" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D440" s="95" t="s">
+      <c r="C440" s="3">
+        <v>1</v>
+      </c>
+      <c r="D440" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E440" s="95" t="s">
+      <c r="E440" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="F440" s="95" t="s">
+      <c r="F440" s="94" t="s">
         <v>84</v>
       </c>
       <c r="H440" s="42">
@@ -19687,19 +19695,19 @@
       <c r="AC440" s="41"/>
     </row>
     <row r="441" spans="1:29" ht="15" customHeight="1">
-      <c r="A441" s="94">
+      <c r="A441" s="93">
         <v>2412</v>
       </c>
-      <c r="B441" s="95" t="s">
+      <c r="B441" s="94" t="s">
         <v>1019</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="D441" s="95" t="s">
+      <c r="D441" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="G441" s="96" t="s">
+      <c r="G441" s="95" t="s">
         <v>287</v>
       </c>
       <c r="I441" s="41"/>
@@ -19728,13 +19736,13 @@
       <c r="A442" s="3">
         <v>2413</v>
       </c>
-      <c r="B442" s="95" t="s">
+      <c r="B442" s="94" t="s">
         <v>1020</v>
       </c>
-      <c r="C442" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D442" s="95" t="s">
+      <c r="C442" s="3">
+        <v>1</v>
+      </c>
+      <c r="D442" s="94" t="s">
         <v>16</v>
       </c>
       <c r="E442" s="41"/>
@@ -19769,13 +19777,13 @@
       <c r="A443" s="3">
         <v>2414</v>
       </c>
-      <c r="B443" s="95" t="s">
+      <c r="B443" s="94" t="s">
         <v>1021</v>
       </c>
-      <c r="C443" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D443" s="95" t="s">
+      <c r="C443" s="3">
+        <v>1</v>
+      </c>
+      <c r="D443" s="94" t="s">
         <v>19</v>
       </c>
       <c r="E443" s="41"/>
@@ -19805,14 +19813,14 @@
       <c r="AC443" s="41"/>
     </row>
     <row r="444" spans="1:29" ht="15" customHeight="1">
-      <c r="A444" s="97">
+      <c r="A444" s="96">
         <v>2415</v>
       </c>
-      <c r="B444" s="95" t="s">
+      <c r="B444" s="94" t="s">
         <v>1013</v>
       </c>
-      <c r="C444" s="3" t="s">
-        <v>1032</v>
+      <c r="C444" s="3">
+        <v>1</v>
       </c>
       <c r="D444" s="41" t="s">
         <v>19</v>
@@ -19846,19 +19854,19 @@
       <c r="AC444" s="41"/>
     </row>
     <row r="445" spans="1:29" ht="15" customHeight="1">
-      <c r="A445" s="94">
+      <c r="A445" s="93">
         <v>2416</v>
       </c>
-      <c r="B445" s="95" t="s">
+      <c r="B445" s="94" t="s">
         <v>1022</v>
       </c>
-      <c r="C445" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D445" s="95" t="s">
+      <c r="C445" s="3">
+        <v>1</v>
+      </c>
+      <c r="D445" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="E445" s="96" t="s">
+      <c r="E445" s="95" t="s">
         <v>106</v>
       </c>
       <c r="H445" s="42">
@@ -19891,16 +19899,16 @@
       <c r="AC445" s="41"/>
     </row>
     <row r="446" spans="1:29" ht="15" customHeight="1">
-      <c r="A446" s="94">
+      <c r="A446" s="93">
         <v>2418</v>
       </c>
-      <c r="B446" s="95" t="s">
+      <c r="B446" s="94" t="s">
         <v>1025</v>
       </c>
-      <c r="C446" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D446" s="95" t="s">
+      <c r="C446" s="3">
+        <v>1</v>
+      </c>
+      <c r="D446" s="94" t="s">
         <v>16</v>
       </c>
       <c r="H446" s="42">
@@ -19929,19 +19937,19 @@
       <c r="AC446" s="41"/>
     </row>
     <row r="447" spans="1:29" ht="15" customHeight="1">
-      <c r="A447" s="94">
+      <c r="A447" s="93">
         <v>2419</v>
       </c>
-      <c r="B447" s="95" t="s">
+      <c r="B447" s="94" t="s">
         <v>1026</v>
       </c>
-      <c r="C447" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D447" s="95" t="s">
+      <c r="C447" s="3">
+        <v>1</v>
+      </c>
+      <c r="D447" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E447" s="98" t="s">
+      <c r="E447" s="97" t="s">
         <v>119</v>
       </c>
       <c r="H447" s="42">
@@ -19970,19 +19978,19 @@
       <c r="AC447" s="41"/>
     </row>
     <row r="448" spans="1:29" ht="15" customHeight="1">
-      <c r="A448" s="94">
+      <c r="A448" s="93">
         <v>2420</v>
       </c>
-      <c r="B448" s="95" t="s">
+      <c r="B448" s="94" t="s">
         <v>1027</v>
       </c>
-      <c r="C448" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D448" s="95" t="s">
+      <c r="C448" s="3">
+        <v>1</v>
+      </c>
+      <c r="D448" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E448" s="98" t="s">
+      <c r="E448" s="97" t="s">
         <v>76</v>
       </c>
       <c r="H448" s="42">
@@ -20011,19 +20019,19 @@
       <c r="AC448" s="41"/>
     </row>
     <row r="449" spans="1:29" ht="15" customHeight="1">
-      <c r="A449" s="94">
+      <c r="A449" s="93">
         <v>2421</v>
       </c>
-      <c r="B449" s="95" t="s">
+      <c r="B449" s="94" t="s">
         <v>1023</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="D449" s="95" t="s">
+      <c r="D449" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="E449" s="96"/>
+      <c r="E449" s="95"/>
       <c r="G449" t="s">
         <v>231</v>
       </c>
@@ -20053,23 +20061,26 @@
       <c r="AC449" s="41"/>
     </row>
     <row r="450" spans="1:29" ht="15" customHeight="1">
-      <c r="A450" s="94">
+      <c r="A450" s="13">
         <v>2096</v>
       </c>
-      <c r="B450" s="95" t="s">
+      <c r="B450" s="94" t="s">
         <v>1024</v>
       </c>
-      <c r="C450" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D450" s="95" t="s">
+      <c r="C450" s="3">
+        <v>1</v>
+      </c>
+      <c r="D450" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E450" s="98" t="s">
+      <c r="E450" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="F450" s="98" t="s">
+      <c r="F450" s="97" t="s">
         <v>234</v>
+      </c>
+      <c r="G450" s="116" t="s">
+        <v>1028</v>
       </c>
       <c r="H450" s="42">
         <v>44833</v>
@@ -20097,20 +20108,22 @@
       <c r="AC450" s="41"/>
     </row>
     <row r="451" spans="1:29" ht="15" customHeight="1">
-      <c r="A451" s="94">
+      <c r="A451" s="93">
         <v>2460</v>
       </c>
-      <c r="B451" s="95" t="s">
+      <c r="B451" s="94" t="s">
         <v>1034</v>
       </c>
-      <c r="C451" s="3"/>
+      <c r="C451" s="3">
+        <v>1</v>
+      </c>
       <c r="D451" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E451" s="111" t="s">
+      <c r="E451" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="H451" s="113">
+      <c r="H451" s="112">
         <v>44876</v>
       </c>
       <c r="I451" s="41"/>
@@ -20138,23 +20151,25 @@
       <c r="AC451" s="41"/>
     </row>
     <row r="452" spans="1:29" ht="15" customHeight="1">
-      <c r="A452" s="94">
+      <c r="A452" s="93">
         <v>2461</v>
       </c>
-      <c r="B452" s="95" t="s">
+      <c r="B452" s="94" t="s">
         <v>1035</v>
       </c>
-      <c r="C452" s="3"/>
+      <c r="C452" s="3">
+        <v>1</v>
+      </c>
       <c r="D452" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E452" s="111" t="s">
+      <c r="E452" s="110" t="s">
         <v>515</v>
       </c>
-      <c r="F452" s="116" t="s">
+      <c r="F452" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="H452" s="113">
+      <c r="H452" s="112">
         <v>44876</v>
       </c>
       <c r="I452" s="41"/>
@@ -20182,23 +20197,25 @@
       <c r="AC452" s="41"/>
     </row>
     <row r="453" spans="1:29" ht="15" customHeight="1">
-      <c r="A453" s="94">
+      <c r="A453" s="93">
         <v>2462</v>
       </c>
-      <c r="B453" s="95" t="s">
+      <c r="B453" s="94" t="s">
         <v>1036</v>
       </c>
-      <c r="C453" s="3"/>
+      <c r="C453" s="3">
+        <v>1</v>
+      </c>
       <c r="D453" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E453" s="111" t="s">
+      <c r="E453" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="F453" s="116" t="s">
+      <c r="F453" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="H453" s="113">
+      <c r="H453" s="112">
         <v>44876</v>
       </c>
       <c r="I453" s="41"/>
@@ -20226,20 +20243,22 @@
       <c r="AC453" s="41"/>
     </row>
     <row r="454" spans="1:29" ht="15" customHeight="1">
-      <c r="A454" s="94">
+      <c r="A454" s="93">
         <v>2465</v>
       </c>
-      <c r="B454" s="95" t="s">
+      <c r="B454" s="94" t="s">
         <v>1038</v>
       </c>
-      <c r="C454" s="3"/>
+      <c r="C454" s="3">
+        <v>1</v>
+      </c>
       <c r="D454" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E454" s="111" t="s">
+      <c r="E454" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="H454" s="113">
+      <c r="H454" s="112">
         <v>44877</v>
       </c>
       <c r="K454" s="41" t="s">
@@ -20247,23 +20266,25 @@
       </c>
     </row>
     <row r="455" spans="1:29" ht="15" customHeight="1">
-      <c r="A455" s="94">
+      <c r="A455" s="93">
         <v>2466</v>
       </c>
-      <c r="B455" s="95" t="s">
+      <c r="B455" s="94" t="s">
         <v>1039</v>
       </c>
-      <c r="C455" s="3"/>
+      <c r="C455" s="3">
+        <v>1</v>
+      </c>
       <c r="D455" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E455" s="114" t="s">
+      <c r="E455" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="F455" s="114" t="s">
+      <c r="F455" s="113" t="s">
         <v>597</v>
       </c>
-      <c r="H455" s="113">
+      <c r="H455" s="112">
         <v>44877</v>
       </c>
       <c r="I455" s="41"/>
@@ -20291,23 +20312,25 @@
       <c r="AC455" s="41"/>
     </row>
     <row r="456" spans="1:29" ht="15" customHeight="1">
-      <c r="A456" s="94">
+      <c r="A456" s="93">
         <v>2467</v>
       </c>
-      <c r="B456" s="95" t="s">
+      <c r="B456" s="94" t="s">
         <v>1037</v>
       </c>
-      <c r="C456" s="3"/>
+      <c r="C456" s="3">
+        <v>1</v>
+      </c>
       <c r="D456" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E456" s="112" t="s">
+      <c r="E456" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="F456" s="112" t="s">
+      <c r="F456" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="H456" s="113">
+      <c r="H456" s="112">
         <v>44877</v>
       </c>
       <c r="I456" s="41"/>
@@ -20360,9 +20383,9 @@
       <c r="AC457" s="41"/>
     </row>
     <row r="458" spans="1:29" ht="15" customHeight="1">
-      <c r="B458" s="95"/>
-      <c r="D458" s="95"/>
-      <c r="E458" s="96"/>
+      <c r="B458" s="94"/>
+      <c r="D458" s="94"/>
+      <c r="E458" s="95"/>
       <c r="H458" s="42"/>
       <c r="I458" s="41"/>
       <c r="J458" s="41"/>
@@ -20387,9 +20410,9 @@
       <c r="AC458" s="41"/>
     </row>
     <row r="459" spans="1:29" ht="15" customHeight="1">
-      <c r="B459" s="95"/>
-      <c r="D459" s="95"/>
-      <c r="E459" s="96"/>
+      <c r="B459" s="94"/>
+      <c r="D459" s="94"/>
+      <c r="E459" s="95"/>
       <c r="H459" s="42"/>
       <c r="I459" s="41"/>
       <c r="J459" s="41"/>
@@ -30265,15 +30288,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="94"/>
+    <col min="1" max="1" width="14.42578125" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -30300,7 +30323,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="100">
+      <c r="A3" s="99">
         <v>2333</v>
       </c>
       <c r="B3" s="50" t="s">
@@ -30460,6 +30483,20 @@
       </c>
       <c r="C15" s="41" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="93">
+        <v>2420</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -30861,7 +30898,7 @@
       <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="94">
+      <c r="A14" s="93">
         <v>2462</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -30870,7 +30907,7 @@
       <c r="C14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="110" t="s">
         <v>33</v>
       </c>
     </row>
@@ -31050,10 +31087,10 @@
       <c r="C12" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>1016</v>
       </c>
-      <c r="E12" s="95"/>
+      <c r="E12" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35285,7 +35322,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -35486,7 +35523,7 @@
       <c r="A15" s="41"/>
       <c r="B15" s="5"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="110"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
@@ -36181,7 +36218,7 @@
       <c r="C21" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="101" t="s">
         <v>476</v>
       </c>
     </row>
@@ -36301,7 +36338,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="13"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="103"/>
+      <c r="C32" s="102"/>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="49"/>
@@ -39920,7 +39957,7 @@
       <c r="B40" s="60"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="104"/>
+      <c r="E40" s="103"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="63">
@@ -40349,7 +40386,7 @@
       </c>
       <c r="D70" s="118"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="115"/>
+      <c r="F70" s="114"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4"/>
@@ -40357,7 +40394,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="115"/>
+      <c r="F71" s="114"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="13">
@@ -40398,7 +40435,7 @@
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="94">
+      <c r="A75" s="93">
         <v>2466</v>
       </c>
       <c r="B75" s="41" t="s">
@@ -40407,10 +40444,10 @@
       <c r="C75" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="114" t="s">
+      <c r="D75" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="E75" s="114" t="s">
+      <c r="E75" s="113" t="s">
         <v>597</v>
       </c>
     </row>
@@ -47072,10 +47109,10 @@
       <c r="B3" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="106" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -47429,7 +47466,7 @@
       <c r="A24" s="14">
         <v>236</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="98" t="s">
         <v>190</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -47443,10 +47480,10 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="94">
+      <c r="A25" s="93">
         <v>2096</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="94" t="s">
         <v>1024</v>
       </c>
       <c r="C25" t="s">
@@ -60872,7 +60909,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="94"/>
+    <col min="1" max="1" width="14.42578125" style="93"/>
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" customWidth="1"/>
@@ -61118,7 +61155,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="100">
+      <c r="A20" s="99">
         <v>215</v>
       </c>
       <c r="B20" s="49"/>
@@ -61130,7 +61167,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="100">
+      <c r="A21" s="99">
         <v>973</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -61142,7 +61179,7 @@
       <c r="D21" s="118"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="100">
+      <c r="A22" s="99">
         <v>31</v>
       </c>
       <c r="B22" s="49"/>
@@ -61376,7 +61413,7 @@
       <c r="E39" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="G39" s="94"/>
+      <c r="G39" s="93"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="63">
@@ -61423,7 +61460,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="94">
+      <c r="A43" s="93">
         <v>977</v>
       </c>
       <c r="B43" s="51" t="s">
@@ -61437,7 +61474,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="94">
+      <c r="A44" s="93">
         <v>287</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -61471,7 +61508,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="94">
+      <c r="A46" s="93">
         <v>992</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -61578,7 +61615,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="94">
+      <c r="A54" s="93">
         <v>2460</v>
       </c>
       <c r="B54" s="41" t="s">
@@ -61587,7 +61624,7 @@
       <c r="C54" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="111" t="s">
+      <c r="D54" s="110" t="s">
         <v>84</v>
       </c>
     </row>
@@ -70633,7 +70670,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -71502,10 +71539,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -72278,7 +72315,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="A67" s="94">
+      <c r="A67" s="93">
         <v>322</v>
       </c>
       <c r="B67" s="41" t="s">
@@ -72287,8 +72324,22 @@
       <c r="C67" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="113" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1">
+      <c r="A68" s="13">
+        <v>2400</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>680</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -72308,10 +72359,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -72422,7 +72473,7 @@
       <c r="A9" s="5">
         <v>743</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="104" t="s">
         <v>196</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -72436,7 +72487,7 @@
       <c r="A10" s="44">
         <v>1976</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="104" t="s">
         <v>504</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -72525,7 +72576,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>934</v>
       </c>
@@ -72539,7 +72590,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="32">
         <v>847</v>
       </c>
@@ -72556,7 +72607,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="5">
         <v>2360</v>
       </c>
@@ -72573,7 +72624,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="41">
         <v>2127</v>
       </c>
@@ -72587,7 +72638,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="41">
         <v>802</v>
       </c>
@@ -72601,7 +72652,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="44">
         <v>2392</v>
       </c>
@@ -72615,7 +72666,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="44">
         <v>2392</v>
       </c>
@@ -72629,21 +72680,21 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="4">
         <v>2359</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="94" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>834</v>
       </c>
@@ -72658,6 +72709,26 @@
       </c>
       <c r="E25" s="41" t="s">
         <v>660</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
+      <c r="A26" s="13">
+        <v>2096</v>
+      </c>
+      <c r="B26" s="94" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="116" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
